--- a/medicine/Sexualité et sexologie/Symphorophilie/Symphorophilie.xlsx
+++ b/medicine/Sexualité et sexologie/Symphorophilie/Symphorophilie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La symphorophilie est une paraphilie pour laquelle l'excitation sexuelle se déclenche en assistant à un désastre tel un incendie ou un accident de la circulation[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La symphorophilie est une paraphilie pour laquelle l'excitation sexuelle se déclenche en assistant à un désastre tel un incendie ou un accident de la circulation.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les personnages principaux du roman Crash ! sorti en 1973 et rédigé par J. G. Ballard, et de son adaptation Crash (film, 1996) de David Cronenberg sont symphorophiles.
 Le personnage Stuntman Mike dans Boulevard de la mort de Quentin Tarantino est symphorophile.</t>
